--- a/practica2/trunk/TDAs/doc/metricas/metricas_sel.xlsx
+++ b/practica2/trunk/TDAs/doc/metricas/metricas_sel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Preparación de la Prueba</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Refactorización general</t>
+  </si>
+  <si>
+    <t>Código para lectura/escritura del SEL</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1114,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.441860465116272E-2</c:v>
+                  <c:v>6.2256809338521346E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92558139534883732</c:v>
+                  <c:v>0.93774319066147871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,7 +1705,7 @@
   <dimension ref="A1:IU50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2211,21 +2214,37 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="A18" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="22">
+        <v>70</v>
+      </c>
+      <c r="C18" s="22">
+        <v>86</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.1875</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0.21666666666666667</v>
+      </c>
       <c r="G18" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
+        <v>2.9166666666666674E-2</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0</v>
+      </c>
       <c r="J18" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9166666666666674E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -2324,21 +2343,21 @@
       </c>
       <c r="B24" s="24">
         <f>SUM(B6:B23)</f>
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="C24" s="24">
         <f>SUM(C6:C23)</f>
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="D24" s="25">
         <f>SUM(D6:D23)</f>
-        <v>0.12083333333333333</v>
+        <v>0.13472222222222222</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
         <f>SUM(G6:G23)</f>
-        <v>0.13819444444444459</v>
+        <v>0.16736111111111127</v>
       </c>
       <c r="H24" s="26">
         <f>SUM(H6:H23)</f>
@@ -2350,7 +2369,7 @@
       </c>
       <c r="J24" s="28">
         <f>SUM(J6:J23)</f>
-        <v>0.14930555555555569</v>
+        <v>0.17847222222222237</v>
       </c>
       <c r="K24" s="4"/>
     </row>
@@ -2360,7 +2379,7 @@
       </c>
       <c r="B25" s="20">
         <f>IF(EXACT($C$24, 0),"-",ABS($B$24-$C$24)/$C$24)</f>
-        <v>0.11715481171548117</v>
+        <v>3.6923076923076927E-2</v>
       </c>
       <c r="D25" s="5"/>
       <c r="J25" s="3"/>
@@ -2378,7 +2397,7 @@
       </c>
       <c r="B28" s="32">
         <f>C24</f>
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="C28" s="9"/>
     </row>
@@ -2388,7 +2407,7 @@
       </c>
       <c r="B29" s="34">
         <f>IF(EXACT($B$28,0),"-",$B$28/((J24-INT(J24))*24))</f>
-        <v>66.697674418604592</v>
+        <v>75.875486381322901</v>
       </c>
       <c r="C29" s="9"/>
     </row>
@@ -2398,7 +2417,7 @@
       </c>
       <c r="B30" s="34">
         <f>IF(EXACT($B$28,0),"-",H24/($B$28/10))</f>
-        <v>8.3682008368200847E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="C30" s="9"/>
     </row>
@@ -2408,7 +2427,7 @@
       </c>
       <c r="B31" s="36">
         <f>IF(EXACT($B$28,0),"-",H24/$B$28)</f>
-        <v>8.368200836820083E-3</v>
+        <v>6.1538461538461538E-3</v>
       </c>
       <c r="C31" s="44" t="s">
         <v>19</v>
@@ -2424,7 +2443,7 @@
       </c>
       <c r="C32" s="40">
         <f>IF(EXACT(J24,0),5%,B32/J24)</f>
-        <v>7.441860465116272E-2</v>
+        <v>6.2256809338521346E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2433,11 +2452,11 @@
       </c>
       <c r="B33" s="39">
         <f>G24</f>
-        <v>0.13819444444444459</v>
+        <v>0.16736111111111127</v>
       </c>
       <c r="C33" s="41">
         <f>IF(EXACT(J24,0),95%,B33/J24)</f>
-        <v>0.92558139534883732</v>
+        <v>0.93774319066147871</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2446,7 +2465,7 @@
       </c>
       <c r="B34" s="39">
         <f>C2+C3+J24</f>
-        <v>0.16527777777777786</v>
+        <v>0.19444444444444453</v>
       </c>
       <c r="D34" s="6"/>
     </row>

--- a/practica2/trunk/TDAs/doc/metricas/metricas_sel.xlsx
+++ b/practica2/trunk/TDAs/doc/metricas/metricas_sel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Preparación de la Prueba</t>
   </si>
@@ -137,6 +137,24 @@
   </si>
   <si>
     <t>Código para lectura/escritura del SEL</t>
+  </si>
+  <si>
+    <t>Transponer matriz</t>
+  </si>
+  <si>
+    <t>Solución de un Sistema Lineal (Algoritmo Factorización LU)</t>
+  </si>
+  <si>
+    <t>Métodos heredados de Object</t>
+  </si>
+  <si>
+    <t>MatrizInvertible</t>
+  </si>
+  <si>
+    <t>Refactorización general (test de MatrizMath)</t>
+  </si>
+  <si>
+    <t>Programa generador de matrices y análisis de rendimiento</t>
   </si>
 </sst>
 </file>
@@ -687,7 +705,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -806,6 +824,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="4" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -1095,7 +1116,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Metricas!$A$32:$A$33</c:f>
+              <c:f>Metricas!$A$35:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1109,15 +1130,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Metricas!$C$32:$C$33</c:f>
+              <c:f>Metricas!$C$35:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.2256809338521346E-2</c:v>
+                  <c:v>3.8095238095238071E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93774319066147871</c:v>
+                  <c:v>0.96190476190476182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,13 +1180,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1702,10 +1723,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:IU50"/>
+  <dimension ref="A1:IU53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1859,7 +1880,7 @@
         <v>0.91805555555555562</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" ref="G7:G23" si="0">F7-E7</f>
+        <f t="shared" ref="G7:G26" si="0">F7-E7</f>
         <v>2.6388888888889017E-2</v>
       </c>
       <c r="H7" s="7">
@@ -1869,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="30">
-        <f t="shared" ref="J7:J23" si="1">G7+I7</f>
+        <f t="shared" ref="J7:J26" si="1">G7+I7</f>
         <v>2.6388888888889017E-2</v>
       </c>
     </row>
@@ -2248,240 +2269,390 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="A19" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="22">
+        <v>7</v>
+      </c>
+      <c r="C19" s="22">
+        <v>7</v>
+      </c>
+      <c r="D19" s="23">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0.25069444444444444</v>
+      </c>
       <c r="G19" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="H19" s="22">
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
+        <v>0</v>
+      </c>
       <c r="J19" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333259E-3</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="A20" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="22">
+        <v>150</v>
+      </c>
+      <c r="C20" s="22">
+        <v>125</v>
+      </c>
+      <c r="D20" s="23">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0.28472222222222221</v>
+      </c>
       <c r="G20" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
+        <v>2.9861111111111116E-2</v>
+      </c>
+      <c r="H20" s="22">
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
+        <v>0</v>
+      </c>
       <c r="J20" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9861111111111116E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="A21" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="22">
+        <v>40</v>
+      </c>
+      <c r="C21" s="22">
+        <v>51</v>
+      </c>
+      <c r="D21" s="23">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0.29305555555555557</v>
+      </c>
       <c r="G21" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
+        <v>4.1666666666666519E-3</v>
+      </c>
+      <c r="H21" s="22">
+        <v>0</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0</v>
+      </c>
       <c r="J21" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666519E-3</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="A22" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="22">
+        <v>50</v>
+      </c>
+      <c r="C22" s="22">
+        <v>74</v>
+      </c>
+      <c r="D22" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0.32361111111111113</v>
+      </c>
       <c r="G22" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
+        <v>2.2222222222222254E-2</v>
+      </c>
+      <c r="H22" s="22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="23">
+        <v>0</v>
+      </c>
       <c r="J22" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+        <v>2.2222222222222254E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G23" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
+        <v>2.9166666666666619E-2</v>
+      </c>
+      <c r="H23" s="22">
+        <v>0</v>
+      </c>
+      <c r="I23" s="23">
+        <v>0</v>
+      </c>
       <c r="J23" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+        <v>2.9166666666666619E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="22">
+        <v>100</v>
+      </c>
+      <c r="C24" s="22">
+        <v>51</v>
+      </c>
+      <c r="D24" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E24" s="54">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="F24" s="23">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="0"/>
+        <v>2.5694444444444464E-2</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0</v>
+      </c>
+      <c r="I24" s="23">
+        <v>0</v>
+      </c>
+      <c r="J24" s="30">
+        <f t="shared" si="1"/>
+        <v>2.5694444444444464E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="24">
-        <f>SUM(B6:B23)</f>
-        <v>337</v>
-      </c>
-      <c r="C24" s="24">
-        <f>SUM(C6:C23)</f>
-        <v>325</v>
-      </c>
-      <c r="D24" s="25">
-        <f>SUM(D6:D23)</f>
-        <v>0.13472222222222222</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25">
-        <f>SUM(G6:G23)</f>
-        <v>0.16736111111111127</v>
-      </c>
-      <c r="H24" s="26">
-        <f>SUM(H6:H23)</f>
+      <c r="B27" s="24">
+        <f>SUM(B6:B26)</f>
+        <v>684</v>
+      </c>
+      <c r="C27" s="24">
+        <f>SUM(C6:C26)</f>
+        <v>633</v>
+      </c>
+      <c r="D27" s="25">
+        <f>SUM(D6:D26)</f>
+        <v>0.23402777777777778</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25">
+        <f>SUM(G6:G26)</f>
+        <v>0.28055555555555567</v>
+      </c>
+      <c r="H27" s="26">
+        <f>SUM(H6:H26)</f>
         <v>2</v>
       </c>
-      <c r="I24" s="27">
-        <f>SUM(I6:I23)</f>
+      <c r="I27" s="27">
+        <f>SUM(I6:I26)</f>
         <v>1.111111111111111E-2</v>
       </c>
-      <c r="J24" s="28">
-        <f>SUM(J6:J23)</f>
-        <v>0.17847222222222237</v>
-      </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="J27" s="28">
+        <f>SUM(J6:J26)</f>
+        <v>0.2916666666666668</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="20">
-        <f>IF(EXACT($C$24, 0),"-",ABS($B$24-$C$24)/$C$24)</f>
-        <v>3.6923076923076927E-2</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
+      <c r="B28" s="20">
+        <f>IF(EXACT($C$27, 0),"-",ABS($B$27-$C$27)/$C$27)</f>
+        <v>8.0568720379146919E-2</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="43"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="B30" s="43"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="32">
-        <f>C24</f>
-        <v>325</v>
-      </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="B31" s="32">
+        <f>C27</f>
+        <v>633</v>
+      </c>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="34">
-        <f>IF(EXACT($B$28,0),"-",$B$28/((J24-INT(J24))*24))</f>
-        <v>75.875486381322901</v>
-      </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
+      <c r="B32" s="34">
+        <f>IF(EXACT($B$31,0),"-",$B$31/((J27-INT(J27))*24))</f>
+        <v>90.428571428571388</v>
+      </c>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="34">
-        <f>IF(EXACT($B$28,0),"-",H24/($B$28/10))</f>
-        <v>6.1538461538461542E-2</v>
-      </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="B33" s="34">
+        <f>IF(EXACT($B$31,0),"-",H27/($B$31/10))</f>
+        <v>3.1595576619273306E-2</v>
+      </c>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="36">
-        <f>IF(EXACT($B$28,0),"-",H24/$B$28)</f>
-        <v>6.1538461538461538E-3</v>
-      </c>
-      <c r="C31" s="44" t="s">
+      <c r="B34" s="36">
+        <f>IF(EXACT($B$31,0),"-",H27/$B$31)</f>
+        <v>3.1595576619273301E-3</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="37">
-        <f>I24</f>
+      <c r="B35" s="37">
+        <f>I27</f>
         <v>1.111111111111111E-2</v>
       </c>
-      <c r="C32" s="40">
-        <f>IF(EXACT(J24,0),5%,B32/J24)</f>
-        <v>6.2256809338521346E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+      <c r="C35" s="40">
+        <f>IF(EXACT(J27,0),5%,B35/J27)</f>
+        <v>3.8095238095238071E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="39">
-        <f>G24</f>
-        <v>0.16736111111111127</v>
-      </c>
-      <c r="C33" s="41">
-        <f>IF(EXACT(J24,0),95%,B33/J24)</f>
-        <v>0.93774319066147871</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
+      <c r="B36" s="39">
+        <f>G27</f>
+        <v>0.28055555555555567</v>
+      </c>
+      <c r="C36" s="41">
+        <f>IF(EXACT(J27,0),95%,B36/J27)</f>
+        <v>0.96190476190476182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="39">
-        <f>C2+C3+J24</f>
-        <v>0.19444444444444453</v>
-      </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C39" s="1">
+      <c r="B37" s="39">
+        <f>C2+C3+J27</f>
+        <v>0.30763888888888896</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
         <v>547</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C48" s="4"/>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D50" s="4"/>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="4"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
